--- a/DataTable/NestLevelTable.xlsx
+++ b/DataTable/NestLevelTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityProject\ProjectF\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{66095AFF-B5BD-2E4A-B186-D6D1000929AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{72161848-0F44-49A2-B138-609B2A82F978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="2000" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NestLevelTable" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1044,20 +1044,20 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="3"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" style="3"/>
+    <col min="1" max="1" width="11.5546875" style="3"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5546875" style="3"/>
     <col min="6" max="6" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5703125" style="3"/>
+    <col min="7" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1097,180 +1097,188 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>5000</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <f t="shared" ref="F4:F17" si="0">ROUND(E4/15, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f>A4+1</f>
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>5000</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f t="shared" ref="A6:A17" si="0">A5+1</f>
+        <f t="shared" ref="A6:A17" si="1">A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>5000</v>
+        <v>80</v>
       </c>
       <c r="F6" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>5000</v>
+        <v>150</v>
       </c>
       <c r="F7" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>5000</v>
+        <v>220</v>
       </c>
       <c r="F8" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
       <c r="E9" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="F9" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
         <v>6</v>
       </c>
       <c r="E10" s="1">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="F10" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
       </c>
       <c r="E11" s="1">
-        <v>5000</v>
+        <v>550</v>
       </c>
       <c r="F11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
         <v>6</v>
@@ -1279,19 +1287,20 @@
         <v>8</v>
       </c>
       <c r="E12" s="1">
-        <v>5000</v>
+        <v>700</v>
       </c>
       <c r="F12" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B13" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1">
         <v>6</v>
@@ -1300,94 +1309,99 @@
         <v>9</v>
       </c>
       <c r="E13" s="1">
-        <v>5000</v>
+        <v>900</v>
       </c>
       <c r="F13" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1">
         <v>10</v>
       </c>
       <c r="E14" s="1">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B15" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1">
         <v>11</v>
       </c>
       <c r="E15" s="1">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="F15" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1">
         <v>12</v>
       </c>
       <c r="E16" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="F16" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B17" s="1">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1">
         <v>13</v>
       </c>
       <c r="E17" s="1">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="F17" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable/NestLevelTable.xlsx
+++ b/DataTable/NestLevelTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityProject\ProjectF\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{72161848-0F44-49A2-B138-609B2A82F978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9A3F78CE-00E1-214D-8FE7-4B61ED12BD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NestLevelTable" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1044,31 +1044,34 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="3"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5546875" style="3"/>
+    <col min="1" max="2" width="11.5703125" style="3"/>
+    <col min="3" max="3" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="3"/>
     <col min="6" max="6" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="3"/>
+    <col min="7" max="16384" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1077,7 +1080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1097,18 +1100,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>20</v>
@@ -1118,19 +1121,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <f>A4+1</f>
         <v>1</v>
       </c>
       <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>40</v>
@@ -1140,19 +1143,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <f t="shared" ref="A6:A17" si="1">A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
       </c>
       <c r="E6" s="1">
         <v>80</v>
@@ -1162,19 +1165,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
       </c>
       <c r="E7" s="1">
         <v>150</v>
@@ -1184,16 +1187,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
         <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
@@ -1206,16 +1209,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
         <v>10</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
@@ -1228,19 +1231,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
         <v>12</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6</v>
       </c>
       <c r="E10" s="1">
         <v>400</v>
@@ -1250,19 +1253,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
         <v>14</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>7</v>
       </c>
       <c r="E11" s="1">
         <v>550</v>
@@ -1272,19 +1275,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
         <v>16</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>6</v>
-      </c>
-      <c r="D12" s="1">
-        <v>8</v>
       </c>
       <c r="E12" s="1">
         <v>700</v>
@@ -1294,19 +1297,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
         <v>18</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>6</v>
-      </c>
-      <c r="D13" s="1">
-        <v>9</v>
       </c>
       <c r="E13" s="1">
         <v>900</v>
@@ -1316,19 +1319,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>7</v>
-      </c>
-      <c r="D14" s="1">
-        <v>10</v>
       </c>
       <c r="E14" s="1">
         <v>1200</v>
@@ -1338,19 +1341,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
         <v>30</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>7</v>
-      </c>
-      <c r="D15" s="1">
-        <v>11</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
@@ -1360,19 +1363,19 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
         <v>35</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>7</v>
-      </c>
-      <c r="D16" s="1">
-        <v>12</v>
       </c>
       <c r="E16" s="1">
         <v>2500</v>
@@ -1382,19 +1385,19 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
         <v>40</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>8</v>
-      </c>
-      <c r="D17" s="1">
-        <v>13</v>
       </c>
       <c r="E17" s="1">
         <v>3500</v>
